--- a/medicine/Psychotrope/Muscaris/Muscaris.xlsx
+++ b/medicine/Psychotrope/Muscaris/Muscaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Muscaris B est un cépage de vin blanc cultivé depuis 1987 et résistant aux champignons.    
@@ -513,10 +525,12 @@
           <t>Origine, lignée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscaris a été élaboré au Staatlichen Weinbauinstitut Freiburg par Norbert Becker à partir des variétés Solaris (comme variété mère, ♀) et muscat (comme variété père ♂). Le cépage solaris est issu des variétés mères merzling (comme variété mère, ♀) et Gm 6493 (comme  variété  père, ♂).  
-Malgré une faible proportion de la variété vitis amurensis via la variété Gm 6493, le muscaris ne fait pas partie de la famille des vignes hybrides[1]. 
+Malgré une faible proportion de la variété vitis amurensis via la variété Gm 6493, le muscaris ne fait pas partie de la famille des vignes hybrides. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins blancs sont doux à corsés, ont une forte acidité et un bouquet intense déterminé par des notes de muscade. 
 </t>
